--- a/medicine/Sexualité et sexologie/Rachel_Kramer_Bussel/Rachel_Kramer_Bussel.xlsx
+++ b/medicine/Sexualité et sexologie/Rachel_Kramer_Bussel/Rachel_Kramer_Bussel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Kramer Bussel, née en 1975, est une écrivaine, chroniqueuse et éditrice américaine spécialisée dans l'érotisme.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bussel a été rédactrice en chef chez Penthouse Variations et conseillère de rédaction chez Penthouse magazine.
 Elle tient actuellement un blogue pour The Huffington Post.
-Elle se présente comme bisexuelle, et dit à ce propos : "I think ideally I'd like to have a male lover and a female lover, either a triad situation or one on one"[1].
+Elle se présente comme bisexuelle, et dit à ce propos : "I think ideally I'd like to have a male lover and a female lover, either a triad situation or one on one".
 </t>
         </is>
       </c>
